--- a/model/results/mix3_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1341329.615384616</v>
+        <v>1341329.615384615</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="7">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1255386.666666667</v>
+        <v>1255385.928949085</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4534666.666666667</v>
+        <v>3565064.36299387</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="8">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2895026.666666667</v>
+        <v>1639640</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4534666.666666667</v>
+        <v>3565064.36299387</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>1175215.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1047221.999999673</v>
+        <v>1047222.000000075</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="10">
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>1210123.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1047221.999999672</v>
+        <v>1047222.000000075</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>1279938</v>
       </c>
       <c r="M11" t="n">
-        <v>1047221.999999672</v>
+        <v>1047221.999999909</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="12">
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>1279938</v>
       </c>
       <c r="M12" t="n">
-        <v>1047221.999999737</v>
+        <v>1047221.999999909</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="13">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>4534666.666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>1.582502515552553e-08</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>1279938</v>
       </c>
       <c r="M13" t="n">
-        <v>1047221.999999813</v>
+        <v>1047221.999999909</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="14">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>4534666.666666667</v>
       </c>
       <c r="J14" t="n">
-        <v>1.582502515552553e-08</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>1279938</v>
       </c>
       <c r="M14" t="n">
-        <v>1047221.999999878</v>
+        <v>1047221.999999909</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="15">
@@ -1517,7 +1517,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1341329.615384617</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>4534666.666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>1.582502515552553e-08</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>1279938</v>
       </c>
       <c r="M15" t="n">
-        <v>1047221.999999964</v>
+        <v>1047221.999999823</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="16">
@@ -1591,7 +1591,7 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>1215515.324339841</v>
+        <v>1215515.324339848</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G16" t="n">
         <v>878979.5</v>
@@ -1615,7 +1615,7 @@
         <v>4213786.457711443</v>
       </c>
       <c r="J16" t="n">
-        <v>1.582502515552553e-08</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1279938</v>
       </c>
       <c r="M16" t="n">
-        <v>1047221.999999964</v>
+        <v>1047221.999999909</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="17">
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>1215515.32433984</v>
+        <v>1215515.324339848</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G17" t="n">
         <v>878979.5</v>
@@ -1686,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4213786.457711442</v>
+        <v>4213786.457711443</v>
       </c>
       <c r="J17" t="n">
-        <v>1.458006966992374e-07</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>1279938</v>
       </c>
       <c r="M17" t="n">
-        <v>1047221.999999944</v>
+        <v>1047222</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>5.184502252844268e-08</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="18">
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>1215515.32433984</v>
+        <v>1215515.324339848</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G18" t="n">
         <v>878979.5</v>
@@ -1763,7 +1763,7 @@
         <v>4213786.457711443</v>
       </c>
       <c r="J18" t="n">
-        <v>1.458006966992374e-07</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>1279938</v>
       </c>
       <c r="M18" t="n">
-        <v>1047221.999999802</v>
+        <v>1047222</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>5.184502252844268e-08</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="19">
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>1215515.32433984</v>
+        <v>1215515.324339849</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G19" t="n">
         <v>878979.5</v>
@@ -1837,7 +1837,7 @@
         <v>4213786.457711443</v>
       </c>
       <c r="J19" t="n">
-        <v>1.458006966992374e-07</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>1279938</v>
       </c>
       <c r="M19" t="n">
-        <v>1047221.999999802</v>
+        <v>1047222</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.184502252844268e-08</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G20" t="n">
         <v>878979.5</v>
@@ -1911,7 +1911,7 @@
         <v>4213786.457711443</v>
       </c>
       <c r="J20" t="n">
-        <v>1.458006966992374e-07</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         <v>1279938</v>
       </c>
       <c r="M20" t="n">
-        <v>1047221.999999802</v>
+        <v>1047222</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5.184502252844268e-08</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
     <row r="21">
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>1215515.32433984</v>
+        <v>1215515.324339839</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4150413.333333334</v>
+        <v>4150413.333333333</v>
       </c>
       <c r="G21" t="n">
         <v>878979.5</v>
@@ -1985,7 +1985,7 @@
         <v>4213786.457711443</v>
       </c>
       <c r="J21" t="n">
-        <v>2.358826108289512e-07</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1994,13 +1994,13 @@
         <v>1279938</v>
       </c>
       <c r="M21" t="n">
-        <v>1047221.999999802</v>
+        <v>1047222</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5.184502252844268e-08</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>136240.0000000001</v>
+        <v>136240</v>
       </c>
     </row>
   </sheetData>
